--- a/01 DOCUEMENTOS/NOMINA CASA   2021.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA   2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="960" windowWidth="19275" windowHeight="13635" tabRatio="714" firstSheet="52" activeTab="54"/>
+    <workbookView xWindow="8370" yWindow="960" windowWidth="19275" windowHeight="13635" tabRatio="714" firstSheet="52" activeTab="52"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA    01    2021   " sheetId="9" r:id="rId1"/>
@@ -65,12 +65,11 @@
     <sheet name="SEMANA   51    2 0 2 1    " sheetId="56" r:id="rId51"/>
     <sheet name="SEMANA   52    2 0 2 1    " sheetId="57" r:id="rId52"/>
     <sheet name="SEMANA    53    2 0 2 1        " sheetId="58" r:id="rId53"/>
-    <sheet name="SEMANA     23     2022         " sheetId="59" r:id="rId54"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId55"/>
-    <sheet name="Hoja6" sheetId="6" r:id="rId56"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId57"/>
-    <sheet name="C A S A  " sheetId="7" r:id="rId58"/>
-    <sheet name="Hoja8" sheetId="8" r:id="rId59"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId54"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId55"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId56"/>
+    <sheet name="C A S A  " sheetId="7" r:id="rId57"/>
+    <sheet name="Hoja8" sheetId="8" r:id="rId58"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="123">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -451,9 +450,6 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  53    DEL     27   AL  02    E N E R O        2 0 2 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMANA #  23    DEL      06    AL     12   JUNIO     2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -59046,8 +59042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60276,1095 +60272,12 @@
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:AB31"/>
-  <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.5703125" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="281" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
-      <c r="N1" s="281"/>
-      <c r="O1" s="281"/>
-    </row>
-    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="281"/>
-      <c r="L2" s="281"/>
-      <c r="M2" s="281"/>
-      <c r="N2" s="281"/>
-      <c r="O2" s="281"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="12"/>
-      <c r="Q5" s="13"/>
-    </row>
-    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="28">
-        <v>500</v>
-      </c>
-      <c r="U6" s="29">
-        <v>200</v>
-      </c>
-      <c r="V6" s="29">
-        <v>100</v>
-      </c>
-      <c r="W6" s="29">
-        <v>50</v>
-      </c>
-      <c r="X6" s="29">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="29">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="29">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31">
-        <v>1</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="34">
-        <v>366.67</v>
-      </c>
-      <c r="E7" s="35">
-        <v>6</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36">
-        <v>0</v>
-      </c>
-      <c r="H7" s="37">
-        <f>D7*E7+F7*D7-0.02</f>
-        <v>2200</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="219">
-        <f t="shared" ref="M7" si="0">I7+H7+G7-L7</f>
-        <v>2200</v>
-      </c>
-      <c r="N7" s="41">
-        <v>0</v>
-      </c>
-      <c r="O7" s="39">
-        <v>0</v>
-      </c>
-      <c r="P7" s="42">
-        <f t="shared" ref="P7:P14" si="1">M7-O7</f>
-        <v>2200</v>
-      </c>
-      <c r="Q7" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
-        <v>4</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="46">
-        <v>280</v>
-      </c>
-      <c r="E8" s="62">
-        <v>6</v>
-      </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="82">
-        <v>0</v>
-      </c>
-      <c r="H8" s="64">
-        <f>D8*E8+D8*F8</f>
-        <v>1680</v>
-      </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85">
-        <v>0</v>
-      </c>
-      <c r="M8" s="53">
-        <f t="shared" ref="M8:M14" si="2">I8+H8+G8-L8</f>
-        <v>1680</v>
-      </c>
-      <c r="N8" s="86">
-        <v>0</v>
-      </c>
-      <c r="O8" s="87">
-        <v>0</v>
-      </c>
-      <c r="P8" s="88">
-        <f t="shared" si="1"/>
-        <v>1680</v>
-      </c>
-      <c r="Q8" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>4</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>10</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31">
-        <v>5</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="71">
-        <v>642.86</v>
-      </c>
-      <c r="E9" s="72">
-        <v>0</v>
-      </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92">
-        <v>0</v>
-      </c>
-      <c r="H9" s="64">
-        <f>D9*F9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="93">
-        <v>0</v>
-      </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="95">
-        <v>0</v>
-      </c>
-      <c r="M9" s="53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="227">
-        <v>0</v>
-      </c>
-      <c r="O9" s="97">
-        <v>0</v>
-      </c>
-      <c r="P9" s="98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
-        <v>6</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="71">
-        <v>357.14</v>
-      </c>
-      <c r="E10" s="72">
-        <v>0</v>
-      </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73">
-        <v>0</v>
-      </c>
-      <c r="H10" s="64">
-        <f>D10*0+D10*F10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="101">
-        <v>0</v>
-      </c>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="103">
-        <v>0</v>
-      </c>
-      <c r="M10" s="53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="104">
-        <v>0</v>
-      </c>
-      <c r="O10" s="87">
-        <v>0</v>
-      </c>
-      <c r="P10" s="105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="107"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="109">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
-        <v>5</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="210">
-        <v>44242</v>
-      </c>
-      <c r="D11" s="211">
-        <v>366.67</v>
-      </c>
-      <c r="E11" s="214">
-        <v>6</v>
-      </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64">
-        <f>D11*E11-0.02</f>
-        <v>2200</v>
-      </c>
-      <c r="I11" s="208"/>
-      <c r="J11" s="208"/>
-      <c r="K11" s="208"/>
-      <c r="L11" s="209">
-        <v>0</v>
-      </c>
-      <c r="M11" s="53">
-        <f>I11+H11+G11-L11</f>
-        <v>2200</v>
-      </c>
-      <c r="N11" s="193">
-        <v>0</v>
-      </c>
-      <c r="O11" s="194">
-        <v>0</v>
-      </c>
-      <c r="P11" s="105">
-        <f>M11-O11</f>
-        <v>2200</v>
-      </c>
-      <c r="Q11" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="116"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="196">
-        <v>2</v>
-      </c>
-      <c r="U11" s="197">
-        <v>5</v>
-      </c>
-      <c r="V11" s="197">
-        <v>2</v>
-      </c>
-      <c r="W11" s="197">
-        <v>0</v>
-      </c>
-      <c r="X11" s="197">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="197">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="197">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="197">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="117"/>
-    </row>
-    <row r="12" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
-        <v>6</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="210">
-        <v>44354</v>
-      </c>
-      <c r="D12" s="211">
-        <v>416.67</v>
-      </c>
-      <c r="E12" s="62">
-        <v>6</v>
-      </c>
-      <c r="F12" s="62">
-        <v>3</v>
-      </c>
-      <c r="G12" s="63">
-        <f>D12*F12</f>
-        <v>1250.01</v>
-      </c>
-      <c r="H12" s="64">
-        <f>D12*E12-0.02</f>
-        <v>2500</v>
-      </c>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="53">
-        <f>I12+H12+G12-L12</f>
-        <v>3750.01</v>
-      </c>
-      <c r="N12" s="193">
-        <v>0</v>
-      </c>
-      <c r="O12" s="194">
-        <v>0</v>
-      </c>
-      <c r="P12" s="105">
-        <f>M12-O12</f>
-        <v>3750.01</v>
-      </c>
-      <c r="Q12" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="116"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="196">
-        <v>6</v>
-      </c>
-      <c r="U12" s="197">
-        <v>2</v>
-      </c>
-      <c r="V12" s="197">
-        <v>1</v>
-      </c>
-      <c r="W12" s="197">
-        <v>2</v>
-      </c>
-      <c r="X12" s="197">
-        <v>5</v>
-      </c>
-      <c r="Y12" s="197">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="197">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="197">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="117"/>
-    </row>
-    <row r="13" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31">
-        <v>7</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="210">
-        <v>44354</v>
-      </c>
-      <c r="D13" s="211">
-        <v>300</v>
-      </c>
-      <c r="E13" s="62">
-        <v>6</v>
-      </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63">
-        <v>0</v>
-      </c>
-      <c r="H13" s="64">
-        <f>D13*E13</f>
-        <v>1800</v>
-      </c>
-      <c r="I13" s="212"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="212" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="213"/>
-      <c r="M13" s="53">
-        <f>I13+H13+G13-L13</f>
-        <v>1800</v>
-      </c>
-      <c r="N13" s="193">
-        <v>0</v>
-      </c>
-      <c r="O13" s="194">
-        <v>0</v>
-      </c>
-      <c r="P13" s="105">
-        <f>M13-O13</f>
-        <v>1800</v>
-      </c>
-      <c r="Q13" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="116"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="196">
-        <v>2</v>
-      </c>
-      <c r="U13" s="197">
-        <v>3</v>
-      </c>
-      <c r="V13" s="197">
-        <v>1</v>
-      </c>
-      <c r="W13" s="197">
-        <v>2</v>
-      </c>
-      <c r="X13" s="197">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="197">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="197">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="197">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="117" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="129"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="48">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131">
-        <v>0</v>
-      </c>
-      <c r="M14" s="132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="133">
-        <v>0</v>
-      </c>
-      <c r="O14" s="134">
-        <v>0</v>
-      </c>
-      <c r="P14" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="S14" s="109"/>
-      <c r="T14" s="220">
-        <f>SUM(T7:T13)</f>
-        <v>14</v>
-      </c>
-      <c r="U14" s="220">
-        <f>SUM(U7:U13)</f>
-        <v>17</v>
-      </c>
-      <c r="V14" s="220">
-        <f>SUM(V7:V13)</f>
-        <v>7</v>
-      </c>
-      <c r="W14" s="220">
-        <f>SUM(W7:W13)</f>
-        <v>5</v>
-      </c>
-      <c r="X14" s="220">
-        <f>SUM(X7:X13)</f>
-        <v>9</v>
-      </c>
-      <c r="Y14" s="220">
-        <f>SUM(Y7:Y13)</f>
-        <v>5</v>
-      </c>
-      <c r="Z14" s="220">
-        <f>SUM(Z7:Z13)</f>
-        <v>10</v>
-      </c>
-      <c r="AA14" s="220">
-        <f>SUM(AA7:AA13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="135"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="140">
-        <f>SUM(H7:H14)</f>
-        <v>10380</v>
-      </c>
-      <c r="I15" s="141">
-        <f>SUM(I7:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="142">
-        <f>SUM(L7:L14)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="143">
-        <f>SUM(M7:M14)</f>
-        <v>11630.01</v>
-      </c>
-      <c r="N15" s="144">
-        <f>SUM(N8:N14)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="145">
-        <f>SUM(O8:O14)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="146">
-        <f>SUM(P7:P14)</f>
-        <v>11630.01</v>
-      </c>
-      <c r="Q15" s="124"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="109"/>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="147"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="149"/>
-      <c r="M16" s="7"/>
-      <c r="P16">
-        <v>1616</v>
-      </c>
-      <c r="Q16" s="150"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="151">
-        <f>T14*T6</f>
-        <v>7000</v>
-      </c>
-      <c r="U16" s="151">
-        <f>U14*U6</f>
-        <v>3400</v>
-      </c>
-      <c r="V16" s="151">
-        <f>V14*V6</f>
-        <v>700</v>
-      </c>
-      <c r="W16" s="152">
-        <f>W14*W6</f>
-        <v>250</v>
-      </c>
-      <c r="X16" s="151">
-        <f>X14*X6</f>
-        <v>180</v>
-      </c>
-      <c r="Y16" s="151">
-        <f>Y14*Y6</f>
-        <v>50</v>
-      </c>
-      <c r="Z16" s="151">
-        <f>Z14*Z6</f>
-        <v>50</v>
-      </c>
-      <c r="AA16" s="151">
-        <f>AA14*AA6</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="153">
-        <f>SUM(T16:AA16)</f>
-        <v>11630</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="155"/>
-      <c r="P17" s="157"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="158"/>
-      <c r="V17" s="158"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="158"/>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="282"/>
-      <c r="O18" s="282"/>
-      <c r="P18" s="283">
-        <f>M15+P17</f>
-        <v>11630.01</v>
-      </c>
-      <c r="Q18" s="283"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="163"/>
-    </row>
-    <row r="19" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B19" s="243" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="243"/>
-      <c r="D19" s="244"/>
-      <c r="E19" s="245"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="162"/>
-      <c r="W19" t="s">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="252">
-        <v>5500</v>
-      </c>
-      <c r="D20" s="159"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="168"/>
-      <c r="M20" s="169"/>
-    </row>
-    <row r="21" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="253">
-        <f>C20+C21</f>
-        <v>5000</v>
-      </c>
-      <c r="C21" s="250">
-        <v>-500</v>
-      </c>
-      <c r="D21" s="255">
-        <v>44534</v>
-      </c>
-      <c r="E21" s="171"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="173"/>
-    </row>
-    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="253">
-        <f>B21+C22</f>
-        <v>4500</v>
-      </c>
-      <c r="C22" s="251">
-        <v>-500</v>
-      </c>
-      <c r="D22" s="256">
-        <v>44541</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="253">
-        <f t="shared" ref="B23:B31" si="3">B22+C23</f>
-        <v>4000</v>
-      </c>
-      <c r="C23" s="251">
-        <v>-500</v>
-      </c>
-      <c r="D23" s="254">
-        <v>44548</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="253">
-        <f t="shared" si="3"/>
-        <v>3500</v>
-      </c>
-      <c r="C24" s="251">
-        <v>-500</v>
-      </c>
-      <c r="D24" s="254">
-        <v>44554</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="253">
-        <f t="shared" si="3"/>
-        <v>3500</v>
-      </c>
-      <c r="C25" s="251"/>
-      <c r="D25" s="254">
-        <v>44560</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="253">
-        <f t="shared" si="3"/>
-        <v>3500</v>
-      </c>
-      <c r="C26" s="251"/>
-      <c r="D26" s="254">
-        <v>44204</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="253">
-        <f t="shared" si="3"/>
-        <v>3500</v>
-      </c>
-      <c r="C27" s="251"/>
-      <c r="D27" s="254">
-        <v>44211</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="253">
-        <f t="shared" si="3"/>
-        <v>3500</v>
-      </c>
-      <c r="C28" s="251"/>
-      <c r="D28" s="254">
-        <v>44218</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="253">
-        <f t="shared" si="3"/>
-        <v>3500</v>
-      </c>
-      <c r="C29" s="251"/>
-      <c r="D29" s="254">
-        <v>44225</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="253">
-        <f t="shared" si="3"/>
-        <v>3500</v>
-      </c>
-      <c r="C30" s="251"/>
-      <c r="D30" s="254">
-        <v>44232</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="253">
-        <f t="shared" si="3"/>
-        <v>3500</v>
-      </c>
-      <c r="C31" s="251"/>
-      <c r="D31" s="254">
-        <v>44239</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:O2"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61461,7 +60374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -61635,7 +60548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -61796,7 +60709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF9966FF"/>
@@ -62150,7 +61063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
